--- a/client/permission.xlsx
+++ b/client/permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.DESKTOP-N6OVBK5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CA4311-1CA9-4687-9F4B-F54E28327262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD1A16-715C-4BCB-BC2D-3F592D61D32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89718711-67AE-4F2C-BD97-DAE8E03312D3}"/>
   </bookViews>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E3F059-D907-4355-88BA-9C53F42C6C03}">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3436,7 +3436,7 @@
         <v>145</v>
       </c>
       <c r="D146" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">

--- a/client/permission.xlsx
+++ b/client/permission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.DESKTOP-N6OVBK5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89328564-BE3E-4357-B9FE-4225C3CF0B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4A31CC-A82C-489D-85D3-D035FA338B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89718711-67AE-4F2C-BD97-DAE8E03312D3}"/>
+    <workbookView xWindow="4104" yWindow="1092" windowWidth="17280" windowHeight="8880" xr2:uid="{89718711-67AE-4F2C-BD97-DAE8E03312D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <v>2021211304</v>
+        <v>304</v>
       </c>
       <c r="B1" s="4">
         <v>2021211100</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>2021211304</v>
+        <v>304</v>
       </c>
       <c r="B2" s="4">
         <v>2021211101</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2021211304</v>
+        <v>304</v>
       </c>
       <c r="B3" s="4">
         <v>2021211102</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2021211304</v>
+        <v>304</v>
       </c>
       <c r="B4" s="4">
         <v>2021211103</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2021211304</v>
+        <v>304</v>
       </c>
       <c r="B5" s="4">
         <v>2021211104</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2021211304</v>
+        <v>304</v>
       </c>
       <c r="B6" s="4">
         <v>2021211105</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>2021211304</v>
+        <v>304</v>
       </c>
       <c r="B7" s="4">
         <v>2021211106</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021211305</v>
+        <v>305</v>
       </c>
       <c r="B8" s="4">
         <v>2021211107</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2021211305</v>
+        <v>305</v>
       </c>
       <c r="B9" s="4">
         <v>2021211108</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2021211305</v>
+        <v>305</v>
       </c>
       <c r="B10" s="4">
         <v>2021211109</v>
